--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CAE17-F682-4C65-AD24-7E9DA17F5222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAFF0A-A7DE-44D2-88D6-E99484C6523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,69 @@
   </si>
   <si>
     <t>Device size(LxWxH/mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYG-9605B 3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF-11-01-00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZZER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYDZ(华宇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7544818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\11_Auxiliary.SchLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\11_Auxiliary.SchLib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\11_Auxiliary\HYG9605B_HYDZ_DS_20250331.pdf</t>
+  </si>
+  <si>
+    <t>9.6mmx9.6mmx5.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20℃~+70℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZ_9_6x9_6x5_SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有源蜂鸣器-HYG-9605B 3V-声压=85dB/工作电压=2V~5V/工作电流=30mA/f=2.7KHz-HYDZ(华宇)-BUZ_9_6x9_6x5_SMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +257,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -487,15 +556,15 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -562,6 +631,59 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAFF0A-A7DE-44D2-88D6-E99484C6523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD7569-40F1-4E65-8E39-7CAF47735376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Library\AD_Library\PCB\11_Auxiliary.SchLib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\Datasheet\11_Auxiliary\HYG9605B_HYDZ_DS_20250331.pdf</t>
   </si>
   <si>
@@ -172,6 +168,9 @@
   <si>
     <t>有源蜂鸣器-HYG-9605B 3V-声压=85dB/工作电压=2V~5V/工作电流=30mA/f=2.7KHz-HYDZ(华宇)-BUZ_9_6x9_6x5_SMD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\005-BUZZER.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -547,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -650,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>24</v>
@@ -659,28 +658,28 @@
         <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>25</v>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD7569-40F1-4E65-8E39-7CAF47735376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2CE969-AF21-4D48-8F0F-9FCC3385C9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,6 @@
     <t>G:\Library\Datasheet\11_Auxiliary\HYG9605B_HYDZ_DS_20250331.pdf</t>
   </si>
   <si>
-    <t>9.6mmx9.6mmx5.0mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.7KHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>G:\Library\AD_Library\PCB\005-BUZZER.PcbLib</t>
+  </si>
+  <si>
+    <t>9.6mm*9.6mm*5.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,8 +546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -649,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>24</v>
@@ -658,28 +660,28 @@
         <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>25</v>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2CE969-AF21-4D48-8F0F-9FCC3385C9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16E19D7-554F-4AC5-BD13-3BD15CB25B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF-11-01-00000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUZZER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>9.6mm*9.6mm*5.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF110100000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -636,10 +636,10 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>22</v>
@@ -651,40 +651,40 @@
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16E19D7-554F-4AC5-BD13-3BD15CB25B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D2AE5-3C86-4393-B59A-F3EE84C7CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878D2AE5-3C86-4393-B59A-F3EE84C7CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D83378-91A6-4D69-8A9D-DCCFD17C21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -549,7 +552,7 @@
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -688,6 +691,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D83378-91A6-4D69-8A9D-DCCFD17C21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F551FE40-CC67-4B34-84BF-37296F400E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,15 +165,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G:\Library\AD_Library\PCB\005-BUZZER.PcbLib</t>
-  </si>
-  <si>
     <t>9.6mm*9.6mm*5.0mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SF110100000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\006-Buzzer.PcbLib</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -666,7 +666,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>27</v>
@@ -684,7 +684,7 @@
         <v>28</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>24</v>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F551FE40-CC67-4B34-84BF-37296F400E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5A489-B64E-4B29-9693-5B5EC882755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,10 +549,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -566,8 +566,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5A489-B64E-4B29-9693-5B5EC882755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E275BCA-0B94-4D03-AFEA-8C435F6DA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +266,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +555,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -560,7 +566,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -587,7 +593,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -652,7 +658,7 @@
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="4" t="s">

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E275BCA-0B94-4D03-AFEA-8C435F6DA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D7C61-D9A3-416B-8318-8E3FF8801004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,56 @@
   </si>
   <si>
     <t>G:\Library\AD_Library\PCB\006-Buzzer.PcbLib</t>
+  </si>
+  <si>
+    <t>SF110200000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2874285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-KG02S-AT50F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_4P_6x6x5_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\010-Key.PcbLib</t>
+  </si>
+  <si>
+    <t>6.0mm*6.0mm*5.0mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HANBO(汉博)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\11_Auxiliary\TS-KG02S_HANBO_DS_20250406.pdf</t>
+  </si>
+  <si>
+    <t>0.05A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关-TS-KG02S-AT50F-4Pin/额定电流=50mA/使用寿命=100000次/行程=0.25mm-HANBO(汉博)-KEY_4P_6x6x5_WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,12 +603,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -695,6 +745,56 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8D7C61-D9A3-416B-8318-8E3FF8801004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E14388-76F9-4E54-896C-E10F14D1E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,17 +169,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SF110100000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G:\Library\AD_Library\PCB\006-Buzzer.PcbLib</t>
   </si>
   <si>
-    <t>SF110200000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C2874285</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,12 @@
   <si>
     <t>轻触开关-TS-KG02S-AT50F-4Pin/额定电流=50mA/使用寿命=100000次/行程=0.25mm-HANBO(汉博)-KEY_4P_6x6x5_WT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF11010001</t>
+  </si>
+  <si>
+    <t>SF11020001</t>
   </si>
 </sst>
 </file>
@@ -608,26 +606,26 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="5" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="5" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="5" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -692,9 +690,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -721,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>27</v>
@@ -745,54 +743,54 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E14388-76F9-4E54-896C-E10F14D1E4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA9A78-C1A9-4EC2-AE04-D859C9FF28F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,52 @@
   </si>
   <si>
     <t>SF11020001</t>
+  </si>
+  <si>
+    <t>SF11010002</t>
+  </si>
+  <si>
+    <t>C409842</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YS-MBZ12085C05R42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fengming(锋鸣电子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\11_Auxiliary\YS-MBZ12085C05R42_Fengming_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>-20℃~+60℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.048KHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0mm*12.0mm*13.5mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源蜂鸣器-YS-MBZ12085C05R42-声压=85dB/工作电压=3V~7V/工作电流=80mA/f=2.048KHz-Fengming(锋鸣电子)-BUZ_12x12x13_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZ_12x12x13_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,12 +647,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -745,51 +791,104 @@
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/AD_Library/Excel/11_Auxiliary.xlsx
+++ b/AD_Library/Excel/11_Auxiliary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FA9A78-C1A9-4EC2-AE04-D859C9FF28F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE69DC2-48E4-4C7F-8E2A-7F0F578D93BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,11 +262,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无源蜂鸣器-YS-MBZ12085C05R42-声压=85dB/工作电压=3V~7V/工作电流=80mA/f=2.048KHz-Fengming(锋鸣电子)-BUZ_12x12x13_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUZ_12x12x13_5</t>
+    <t>SF11010003</t>
+  </si>
+  <si>
+    <t>C360615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUN-12095-5VPA7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\11_Auxiliary\SUN-12095-5VPA7.6_S&amp;S_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>S&amp;S(海旭)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7KHZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.0mm*12.0mm*13.3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZ_12x12x13_5_P6_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUZ_12x12x13_3_P7_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源蜂鸣器-YS-MBZ12085C05R42-声压=85dB/工作电压=3V~7V/工作电流=80mA/f=2.048KHz-Fengming(锋鸣电子)-BUZ_12x12x13_5_P6_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有源蜂鸣器-SUN-12095-5VPA7.6-声压=85dB/工作电压=4V~7V/工作电流=30mA/f=2.7KHz-S&amp;S(海旭)-BUZ_12x12x13_3_P7_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,12 +681,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -806,7 +840,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>23</v>
@@ -815,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>35</v>
@@ -844,51 +878,104 @@
     </row>
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="S4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
